--- a/config-boda-moh-ke-master/forms/app/contact_follow_up.xlsx
+++ b/config-boda-moh-ke-master/forms/app/contact_follow_up.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dl/Workspaces/medic/config-covid-moh-ke/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\config-covid-community-testing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F726023-0B6F-1D4B-9AE1-D1EAFA9261CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="327">
   <si>
     <t>type</t>
   </si>
@@ -1016,10 +1015,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1211,8 +1209,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1225,15 +1223,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,28 +1307,24 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
       </font>
     </dxf>
   </dxfs>
@@ -1710,32 +1704,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
     <col min="7" max="7" width="83" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
     <col min="12" max="12" width="70" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="38" width="10.42578125" customWidth="1"/>
-    <col min="39" max="1025" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" customWidth="1"/>
+    <col min="15" max="38" width="10.453125" customWidth="1"/>
+    <col min="39" max="1025" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1">
@@ -4185,7 +4179,9 @@
       <c r="B54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -4748,7 +4744,7 @@
       <c r="AK66" s="11"/>
       <c r="AL66" s="11"/>
     </row>
-    <row r="67" spans="1:38" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="67" spans="1:38" s="11" customFormat="1" ht="13.05" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>130</v>
       </c>
@@ -4762,7 +4758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="68" spans="1:38" s="11" customFormat="1" ht="13.05" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>130</v>
       </c>
@@ -4776,7 +4772,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:38" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="69" spans="1:38" s="11" customFormat="1" ht="13.05" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>130</v>
       </c>
@@ -4788,10 +4784,10 @@
       </c>
       <c r="I69" s="11" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-07</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" s="15" customFormat="1" ht="15">
+        <v>2022-07-19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" s="15" customFormat="1" ht="14.4">
       <c r="A70" s="15" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4843,7 @@
       <c r="K72" s="18"/>
       <c r="L72" s="22" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-07</v>
+        <v>2022-07-19</v>
       </c>
       <c r="M72" s="21"/>
       <c r="N72" s="18"/>
@@ -5289,7 +5285,7 @@
       <c r="Q87" s="24"/>
       <c r="U87" s="24"/>
     </row>
-    <row r="88" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="88" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A88" s="18" t="s">
         <v>210</v>
       </c>
@@ -5317,7 +5313,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="89" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A89" s="18" t="s">
         <v>130</v>
       </c>
@@ -5343,7 +5339,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="90" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>210</v>
       </c>
@@ -5371,7 +5367,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="91" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>210</v>
       </c>
@@ -5399,7 +5395,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="92" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A92" s="18" t="s">
         <v>210</v>
       </c>
@@ -5427,7 +5423,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="93" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A93" s="18" t="s">
         <v>210</v>
       </c>
@@ -5455,7 +5451,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="1:21" s="17" customFormat="1" ht="13" customHeight="1">
+    <row r="94" spans="1:21" s="17" customFormat="1" ht="13.05" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>174</v>
       </c>
@@ -5565,7 +5561,9 @@
       <c r="B98" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C98" s="19"/>
+      <c r="C98" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="D98" s="18"/>
       <c r="E98" s="20"/>
       <c r="F98" s="18"/>
@@ -5581,7 +5579,7 @@
       <c r="Q98" s="24"/>
       <c r="U98" s="24"/>
     </row>
-    <row r="99" spans="1:25" s="28" customFormat="1">
+    <row r="99" spans="1:25" s="28" customFormat="1" ht="15">
       <c r="A99" s="26" t="s">
         <v>153</v>
       </c>
@@ -5607,7 +5605,7 @@
       <c r="M99" s="26"/>
       <c r="N99" s="26"/>
     </row>
-    <row r="100" spans="1:25" s="15" customFormat="1" ht="15">
+    <row r="100" spans="1:25" s="15" customFormat="1" ht="14.4">
       <c r="A100" s="15" t="s">
         <v>129</v>
       </c>
@@ -6022,7 +6020,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -6030,19 +6028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="19" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" style="19" customWidth="1"/>
-    <col min="4" max="26" width="10.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" style="19" customWidth="1"/>
+    <col min="2" max="3" width="10.54296875" style="19" customWidth="1"/>
+    <col min="4" max="26" width="10.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -6481,20 +6479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="26" width="10.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="4" max="26" width="10.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1">
@@ -6544,7 +6542,7 @@
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-07</v>
+        <v>2022-07-19</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>323</v>
